--- a/regionseng/7/business sector/by ownership.xlsx
+++ b/regionseng/7/business sector/by ownership.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D858FF37-0EE2-4956-A558-4E0824D412A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="15" yWindow="90" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
   <si>
     <t>Business Statistics</t>
   </si>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#.0;\-#.0;\-"/>
@@ -216,7 +217,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,6 +308,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -342,6 +360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,10 +552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -586,6 +623,12 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -636,6 +679,12 @@
       <c r="P6" s="15">
         <v>117.1</v>
       </c>
+      <c r="Q6" s="15">
+        <v>126.1964659900394</v>
+      </c>
+      <c r="R6" s="15">
+        <v>158</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -686,6 +735,12 @@
       <c r="P7" s="16">
         <v>113.3</v>
       </c>
+      <c r="Q7" s="16">
+        <v>122.82822974131452</v>
+      </c>
+      <c r="R7" s="16">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -736,6 +791,12 @@
       <c r="P8" s="16" t="s">
         <v>5</v>
       </c>
+      <c r="Q8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="16">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -785,6 +846,12 @@
       </c>
       <c r="P9" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.3">
@@ -803,6 +870,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -823,6 +891,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -841,6 +910,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -889,7 +959,12 @@
       <c r="P13" s="6">
         <v>2020</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
@@ -940,7 +1015,12 @@
       <c r="P14" s="15">
         <v>98.4</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="15">
+        <v>100.31595004800003</v>
+      </c>
+      <c r="R14" s="15">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -991,7 +1071,12 @@
       <c r="P15" s="16">
         <v>92.7</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="16">
+        <v>96.632246903000052</v>
+      </c>
+      <c r="R15" s="16">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1042,8 +1127,12 @@
       <c r="P16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="11"/>
+      <c r="Q16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="16">
+        <v>14.8</v>
+      </c>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -1095,8 +1184,12 @@
       <c r="P17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="Q17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1</v>
+      </c>
       <c r="S17" s="11"/>
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.3">
@@ -1115,6 +1208,7 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="25"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1135,6 +1229,7 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
@@ -1152,6 +1247,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1200,6 +1296,12 @@
       <c r="P21" s="6">
         <v>2020</v>
       </c>
+      <c r="Q21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1250,8 +1352,12 @@
       <c r="P22" s="17">
         <v>2107.1</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="17">
+        <v>2330.3270833300003</v>
+      </c>
+      <c r="R22" s="17">
+        <v>2599</v>
+      </c>
       <c r="S22" s="13"/>
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
@@ -1306,8 +1412,12 @@
       <c r="P23" s="18">
         <v>1923.1</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
+      <c r="Q23" s="18">
+        <v>2211.6843814120002</v>
+      </c>
+      <c r="R23" s="18">
+        <v>2315</v>
+      </c>
       <c r="S23" s="13"/>
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
@@ -1362,8 +1472,12 @@
       <c r="P24" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
+      <c r="Q24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="16">
+        <v>189</v>
+      </c>
       <c r="S24" s="13"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
@@ -1417,6 +1531,12 @@
       </c>
       <c r="P25" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="16">
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.3">
@@ -1435,6 +1555,7 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
@@ -1452,6 +1573,7 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1472,6 +1594,7 @@
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
@@ -1489,6 +1612,7 @@
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -1537,6 +1661,12 @@
       <c r="P30" s="6">
         <v>2020</v>
       </c>
+      <c r="Q30" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R30" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -1587,6 +1717,12 @@
       <c r="P31" s="15">
         <v>738.8</v>
       </c>
+      <c r="Q31" s="15">
+        <v>726.8</v>
+      </c>
+      <c r="R31" s="15">
+        <v>977.5</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -1637,8 +1773,14 @@
       <c r="P32" s="16">
         <v>732.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="16">
+        <v>695.8</v>
+      </c>
+      <c r="R32" s="16">
+        <v>838.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1687,8 +1829,14 @@
       <c r="P33" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="16">
+        <v>2468.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
@@ -1736,6 +1884,12 @@
       </c>
       <c r="P34" s="16" t="s">
         <v>5</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="16">
+        <v>485.3</v>
       </c>
     </row>
   </sheetData>
